--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N2">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q2">
-        <v>0.01419159011644444</v>
+        <v>0.07366996927122223</v>
       </c>
       <c r="R2">
-        <v>0.127724311048</v>
+        <v>0.663029723441</v>
       </c>
       <c r="S2">
-        <v>0.003951074766739586</v>
+        <v>0.02144532125171692</v>
       </c>
       <c r="T2">
-        <v>0.003951074766739587</v>
+        <v>0.02144532125171691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q3">
-        <v>0.4862438769768888</v>
+        <v>0.3716275053498889</v>
       </c>
       <c r="R3">
-        <v>4.376194892791999</v>
+        <v>3.344647548149001</v>
       </c>
       <c r="S3">
-        <v>0.1353749577772012</v>
+        <v>0.1081807324889942</v>
       </c>
       <c r="T3">
-        <v>0.1353749577772013</v>
+        <v>0.1081807324889942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N4">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O4">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P4">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q4">
-        <v>0.0977536199111111</v>
+        <v>0.04116590789933334</v>
       </c>
       <c r="R4">
-        <v>0.8797825791999999</v>
+        <v>0.370493171094</v>
       </c>
       <c r="S4">
-        <v>0.02721554510940244</v>
+        <v>0.01198339198798404</v>
       </c>
       <c r="T4">
-        <v>0.02721554510940244</v>
+        <v>0.01198339198798404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,25 +711,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4223226666666666</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H5">
-        <v>1.266968</v>
+        <v>5.624959</v>
       </c>
       <c r="I5">
-        <v>0.1676547342089268</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J5">
-        <v>0.1676547342089269</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009467333333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N5">
-        <v>0.028402</v>
+        <v>0.684721</v>
       </c>
       <c r="O5">
-        <v>0.006639577228975881</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P5">
-        <v>0.00663957722897588</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q5">
-        <v>0.003998269459555555</v>
+        <v>0.4279475057154445</v>
       </c>
       <c r="R5">
-        <v>0.03598442513599999</v>
+        <v>3.851527551439001</v>
       </c>
       <c r="S5">
-        <v>0.001113156555583594</v>
+        <v>0.1245754793944739</v>
       </c>
       <c r="T5">
-        <v>0.001113156555583594</v>
+        <v>0.1245754793944739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J6">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03360366666666666</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N6">
-        <v>0.100811</v>
+        <v>3.454069</v>
       </c>
       <c r="O6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q6">
-        <v>0.06300641574988888</v>
+        <v>2.158777389796778</v>
       </c>
       <c r="R6">
-        <v>0.567057741749</v>
+        <v>19.428996508171</v>
       </c>
       <c r="S6">
-        <v>0.01754159029181853</v>
+        <v>0.6284198988151247</v>
       </c>
       <c r="T6">
-        <v>0.01754159029181853</v>
+        <v>0.6284198988151248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151356333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N7">
-        <v>3.454069</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q7">
-        <v>2.158777389796778</v>
+        <v>0.2391320069806667</v>
       </c>
       <c r="R7">
-        <v>19.428996508171</v>
+        <v>2.152188062826001</v>
       </c>
       <c r="S7">
-        <v>0.6010243251001511</v>
+        <v>0.06961130514915891</v>
       </c>
       <c r="T7">
-        <v>0.6010243251001511</v>
+        <v>0.06961130514915892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +897,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.874986333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H8">
-        <v>5.624959</v>
+        <v>0.244689</v>
       </c>
       <c r="I8">
-        <v>0.7443368783435028</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J8">
-        <v>0.7443368783435029</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2314666666666667</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N8">
-        <v>0.6944</v>
+        <v>0.684721</v>
       </c>
       <c r="O8">
-        <v>0.1623309072530404</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P8">
-        <v>0.1623309072530403</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q8">
-        <v>0.4339968366222223</v>
+        <v>0.01861596630766667</v>
       </c>
       <c r="R8">
-        <v>3.9059715296</v>
+        <v>0.167543696769</v>
       </c>
       <c r="S8">
-        <v>0.1208288807633967</v>
+        <v>0.005419106073049496</v>
       </c>
       <c r="T8">
-        <v>0.1208288807633967</v>
+        <v>0.005419106073049495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +959,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.081563</v>
+      </c>
+      <c r="H9">
+        <v>0.244689</v>
+      </c>
+      <c r="I9">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J9">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.874986333333333</v>
-      </c>
-      <c r="H9">
-        <v>5.624959</v>
-      </c>
-      <c r="I9">
-        <v>0.7443368783435028</v>
-      </c>
-      <c r="J9">
-        <v>0.7443368783435029</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009467333333333333</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N9">
-        <v>0.028402</v>
+        <v>3.454069</v>
       </c>
       <c r="O9">
-        <v>0.006639577228975881</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P9">
-        <v>0.00663957722897588</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q9">
-        <v>0.01775112061311111</v>
+        <v>0.09390807661566666</v>
       </c>
       <c r="R9">
-        <v>0.159760085518</v>
+        <v>0.8451726895410001</v>
       </c>
       <c r="S9">
-        <v>0.004942082188136512</v>
+        <v>0.027336632430774</v>
       </c>
       <c r="T9">
-        <v>0.004942082188136512</v>
+        <v>0.027336632430774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,241 +1021,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.081563</v>
+      </c>
+      <c r="H10">
+        <v>0.244689</v>
+      </c>
+      <c r="I10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.66508</v>
-      </c>
-      <c r="I10">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J10">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03360366666666666</v>
+        <v>0.127538</v>
       </c>
       <c r="N10">
-        <v>0.100811</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q10">
-        <v>0.007449708875555554</v>
+        <v>0.010402381894</v>
       </c>
       <c r="R10">
-        <v>0.06704737987999999</v>
+        <v>0.09362143704600001</v>
       </c>
       <c r="S10">
-        <v>0.002074070383674382</v>
+        <v>0.003028132408723787</v>
       </c>
       <c r="T10">
-        <v>0.002074070383674382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.66508</v>
-      </c>
-      <c r="I11">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J11">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.151356333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.454069</v>
-      </c>
-      <c r="O11">
-        <v>0.8074627800757513</v>
-      </c>
-      <c r="P11">
-        <v>0.8074627800757513</v>
-      </c>
-      <c r="Q11">
-        <v>0.2552480233911111</v>
-      </c>
-      <c r="R11">
-        <v>2.29723221052</v>
-      </c>
-      <c r="S11">
-        <v>0.07106349719839887</v>
-      </c>
-      <c r="T11">
-        <v>0.07106349719839888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.66508</v>
-      </c>
-      <c r="I12">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J12">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2314666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.6944</v>
-      </c>
-      <c r="O12">
-        <v>0.1623309072530404</v>
-      </c>
-      <c r="P12">
-        <v>0.1623309072530403</v>
-      </c>
-      <c r="Q12">
-        <v>0.05131461688888889</v>
-      </c>
-      <c r="R12">
-        <v>0.461831552</v>
-      </c>
-      <c r="S12">
-        <v>0.01428648138024115</v>
-      </c>
-      <c r="T12">
-        <v>0.01428648138024115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.66508</v>
-      </c>
-      <c r="I13">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J13">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.009467333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.028402</v>
-      </c>
-      <c r="O13">
-        <v>0.006639577228975881</v>
-      </c>
-      <c r="P13">
-        <v>0.00663957722897588</v>
-      </c>
-      <c r="Q13">
-        <v>0.002098844684444444</v>
-      </c>
-      <c r="R13">
-        <v>0.01888960216</v>
-      </c>
-      <c r="S13">
-        <v>0.0005843384852557736</v>
-      </c>
-      <c r="T13">
-        <v>0.0005843384852557736</v>
+        <v>0.003028132408723787</v>
       </c>
     </row>
   </sheetData>
